--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999949868733199</v>
+        <v>0.9999959716105697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990652192936076</v>
+        <v>0.9990323745225737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999935445033055</v>
+        <v>0.9999993668352134</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999976648875483</v>
+        <v>0.9999981692609702</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999960926018491</v>
+        <v>0.9999986667237911</v>
       </c>
       <c r="G2" t="n">
-        <v>4.679533705010521e-06</v>
+        <v>3.760324707309085e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008725767572865968</v>
+        <v>0.0009032359093279463</v>
       </c>
       <c r="I2" t="n">
-        <v>5.066731666585276e-06</v>
+        <v>4.594483849655457e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>4.590553166086374e-07</v>
+        <v>1.927992044029933e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>2.762837733208047e-06</v>
+        <v>1.193508651006721e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001618385501248519</v>
+        <v>0.0001375032505472472</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002163222990126196</v>
+        <v>0.00193915566866332</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005729287634</v>
+        <v>1.000004603873635</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002255315871304785</v>
+        <v>0.002021709540083935</v>
       </c>
       <c r="P2" t="n">
-        <v>114.5446241773604</v>
+        <v>114.9820104919285</v>
       </c>
       <c r="Q2" t="n">
-        <v>169.3940362964294</v>
+        <v>169.8314226109975</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999956212942246</v>
+        <v>0.9999965559031452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990542757309144</v>
+        <v>0.9990300770167819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999992382772251</v>
+        <v>0.9999972883920079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999967383262837</v>
+        <v>0.999998960617582</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999953189457698</v>
+        <v>0.9999982899078322</v>
       </c>
       <c r="G3" t="n">
-        <v>4.087329638363247e-06</v>
+        <v>3.214913235547174e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008827920926937069</v>
+        <v>0.0009053805301356323</v>
       </c>
       <c r="I3" t="n">
-        <v>5.978540594726618e-06</v>
+        <v>1.967645609944562e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>6.412062337288138e-07</v>
+        <v>1.094596772088129e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.309873414227716e-06</v>
+        <v>1.5308229326681e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001675113513792291</v>
+        <v>0.0001389149674310458</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00202171452939411</v>
+        <v>0.001793017912779226</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005004235172</v>
+        <v>1.000003936110691</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002107783102436437</v>
+        <v>0.001869350397384998</v>
       </c>
       <c r="P3" t="n">
-        <v>114.8152374025947</v>
+        <v>115.295420376054</v>
       </c>
       <c r="Q3" t="n">
-        <v>169.6646495216638</v>
+        <v>170.144832495123</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999959662931083</v>
+        <v>0.9999967980056543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990440677984809</v>
+        <v>0.9990276115971883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999990717827829</v>
+        <v>0.999994139288174</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999945485795433</v>
+        <v>0.9999993463476253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999940904794135</v>
+        <v>0.999997240115536</v>
       </c>
       <c r="G4" t="n">
-        <v>3.765288324138762e-06</v>
+        <v>2.988921170361971e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008923207495440178</v>
+        <v>0.0009076818911068333</v>
       </c>
       <c r="I4" t="n">
-        <v>7.28530706447436e-06</v>
+        <v>4.252754796647027e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.071684381550467e-06</v>
+        <v>6.883758730456519e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>4.178495723012414e-06</v>
+        <v>2.47056533484634e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001720645116249789</v>
+        <v>0.0001402632214916541</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001940435086298627</v>
+        <v>0.001728849666790601</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000004609950733</v>
+        <v>1.000003659422109</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002023043425176738</v>
+        <v>0.001802450376318055</v>
       </c>
       <c r="P4" t="n">
-        <v>114.979372239056</v>
+        <v>115.4411960965163</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.828784358125</v>
+        <v>170.2906082155854</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999961420707872</v>
+        <v>0.9999967810339115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990355185089866</v>
+        <v>0.9990250537968974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999889534423411</v>
+        <v>0.999990251221757</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999919055350276</v>
+        <v>0.9999994123817885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999927443693212</v>
+        <v>0.9999957030963614</v>
       </c>
       <c r="G5" t="n">
-        <v>3.60120757656157e-06</v>
+        <v>3.004763547273421e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009003011360164351</v>
+        <v>0.0009100694854040152</v>
       </c>
       <c r="I5" t="n">
-        <v>8.670121935704667e-06</v>
+        <v>7.074083262575432e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.591275477062991e-06</v>
+        <v>6.188338252383739e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>5.130301403512324e-06</v>
+        <v>3.846458543906903e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001743050599132515</v>
+        <v>0.0001443403155847415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001897684793784671</v>
+        <v>0.001733425379782303</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000004409061958</v>
+        <v>1.000003678818387</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001978473164205157</v>
+        <v>0.001807220886884846</v>
       </c>
       <c r="P5" t="n">
-        <v>115.0684826616303</v>
+        <v>115.430623359009</v>
       </c>
       <c r="Q5" t="n">
-        <v>169.9178947806994</v>
+        <v>170.280035478078</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999962048520329</v>
+        <v>0.9999965748169393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990282032658496</v>
+        <v>0.9990224702719613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999871246944928</v>
+        <v>0.9999859095084099</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999893212088325</v>
+        <v>0.9999992323265067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999913691213289</v>
+        <v>0.9999938374548029</v>
       </c>
       <c r="G6" t="n">
-        <v>3.542604039560431e-06</v>
+        <v>3.197258039048567e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009071295943828498</v>
+        <v>0.0009124810925281703</v>
       </c>
       <c r="I6" t="n">
-        <v>1.010545295227674e-05</v>
+        <v>1.022459514761037e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.099323249556504e-06</v>
+        <v>8.084540523930177e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>6.102709870446994e-06</v>
+        <v>5.516524600001693e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001775517565358486</v>
+        <v>0.0001518179052131691</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001882180660712576</v>
+        <v>0.001788087816369366</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000004337311962</v>
+        <v>1.000003914494927</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001962308988090204</v>
+        <v>0.001864210416564263</v>
       </c>
       <c r="P6" t="n">
-        <v>115.1012969936946</v>
+        <v>115.3064339565454</v>
       </c>
       <c r="Q6" t="n">
-        <v>169.9507091127636</v>
+        <v>170.1558460756144</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999961229359777</v>
+        <v>0.9999962294554496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990211553820146</v>
+        <v>0.9990199212660181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999849455443436</v>
+        <v>0.9999812938021773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999860168949916</v>
+        <v>0.9999988647234197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999897015091526</v>
+        <v>0.9999917505560844</v>
       </c>
       <c r="G7" t="n">
-        <v>3.619069081298722e-06</v>
+        <v>3.519637830025621e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009137084845764358</v>
+        <v>0.0009148604776877184</v>
       </c>
       <c r="I7" t="n">
-        <v>1.18158045471328e-05</v>
+        <v>1.357392666287639e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.748912024308279e-06</v>
+        <v>1.195585050011304e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>7.281842804254835e-06</v>
+        <v>7.384653392494143e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001808513021470479</v>
+        <v>0.0001586579156589212</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001902385103310768</v>
+        <v>0.001876069782824088</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000004430930311</v>
+        <v>1.000004309193772</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001983373575638762</v>
+        <v>0.001955937957478741</v>
       </c>
       <c r="P7" t="n">
-        <v>115.0585874501202</v>
+        <v>115.11430492569</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.9079995691892</v>
+        <v>169.963717044759</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999960313787668</v>
+        <v>0.99999578956295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990156587389352</v>
+        <v>0.9990174306968822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999983034419341</v>
+        <v>0.9999765723499923</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999833658550379</v>
+        <v>0.9999983599972102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999882708989288</v>
+        <v>0.9999895407386181</v>
       </c>
       <c r="G8" t="n">
-        <v>3.704533718870415e-06</v>
+        <v>3.930258169377626e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009188393596163397</v>
+        <v>0.0009171853146527611</v>
       </c>
       <c r="I8" t="n">
-        <v>1.331579099706786e-05</v>
+        <v>1.699999145215122e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.270074927769775e-06</v>
+        <v>1.727123461886723e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>8.293396721958678e-06</v>
+        <v>9.362815340842274e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001818672052632044</v>
+        <v>0.0001648245273334671</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001924716529484385</v>
+        <v>0.001982487873702542</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000004535567124</v>
+        <v>1.000004811928057</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002006655696857015</v>
+        <v>0.002066886486801708</v>
       </c>
       <c r="P8" t="n">
-        <v>115.0119063179861</v>
+        <v>114.8936108845743</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.8613184370552</v>
+        <v>169.7430230036433</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999958859269744</v>
+        <v>0.9999952867256439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999010852490498</v>
+        <v>0.9990150391756147</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999981121751947</v>
+        <v>0.9999718594730977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999980799924619</v>
+        <v>0.999997756458714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999868528317869</v>
+        <v>0.9999872747293569</v>
       </c>
       <c r="G9" t="n">
-        <v>3.840306582407861e-06</v>
+        <v>4.399634722667236e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009233257815624558</v>
+        <v>0.0009194176947803436</v>
       </c>
       <c r="I9" t="n">
-        <v>1.481698802515048e-05</v>
+        <v>2.041983368539575e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.774506309639402e-06</v>
+        <v>2.362723293402539e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>9.296081694585374e-06</v>
+        <v>1.139127848939914e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001831314017821278</v>
+        <v>0.0001704239892386063</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001959670018755163</v>
+        <v>0.002097530624965279</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000004701797744</v>
+        <v>1.000005386599264</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002043097228529747</v>
+        <v>0.002186826846157025</v>
       </c>
       <c r="P9" t="n">
-        <v>114.9399167107658</v>
+        <v>114.6679780761237</v>
       </c>
       <c r="Q9" t="n">
-        <v>169.7893288298348</v>
+        <v>169.5173901951927</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999995744022216</v>
+        <v>0.9999947458239359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990070352029439</v>
+        <v>0.9990127523515733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999793836918172</v>
+        <v>0.9999672342333744</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999785974408752</v>
+        <v>0.9999970879650201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999855826053288</v>
+        <v>0.9999850063812084</v>
       </c>
       <c r="G10" t="n">
-        <v>3.972768445522188e-06</v>
+        <v>4.904542724158253e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000926889051934749</v>
+        <v>0.0009215523446429944</v>
       </c>
       <c r="I10" t="n">
-        <v>1.618114088821077e-05</v>
+        <v>2.377608306319311e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.207488400715692e-06</v>
+        <v>3.066728890246463e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>1.01942316789955e-05</v>
+        <v>1.342183533927953e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000183755671497114</v>
+        <v>0.0001754965776675697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001993180484934113</v>
+        <v>0.002214620221202329</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00000486397461</v>
+        <v>1.000006004772645</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002078034304630164</v>
+        <v>0.002308901188914764</v>
       </c>
       <c r="P10" t="n">
-        <v>114.8720947297068</v>
+        <v>114.4506973915282</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.7215068487758</v>
+        <v>169.3001095105973</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999955582840688</v>
+        <v>0.9999941893592874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990034419035682</v>
+        <v>0.9990105872199174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999775673553922</v>
+        <v>0.9999627757491344</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999976311781461</v>
+        <v>0.9999963826379458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999842570137488</v>
+        <v>0.9999827855252965</v>
       </c>
       <c r="G11" t="n">
-        <v>4.146146852908188e-06</v>
+        <v>5.423978047536659e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009302432391743229</v>
+        <v>0.000923573400005447</v>
       </c>
       <c r="I11" t="n">
-        <v>1.760673053940188e-05</v>
+        <v>2.701132833726857e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.656821838716519e-06</v>
+        <v>3.809524540328249e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>1.113152915789883e-05</v>
+        <v>1.54098785711908e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001844108306254538</v>
+        <v>0.0001800583462515213</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002036208941368294</v>
+        <v>0.002328943547520347</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005076246778</v>
+        <v>1.000006640732243</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002122894571535931</v>
+        <v>0.002428091495916051</v>
       </c>
       <c r="P11" t="n">
-        <v>114.7866622483898</v>
+        <v>114.2493621092349</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.6360743674588</v>
+        <v>169.0987742283039</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999953832458012</v>
+        <v>0.9999936262045642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990005203060791</v>
+        <v>0.9990085478159326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999759235438908</v>
+        <v>0.9999584888364988</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999743649324971</v>
+        <v>0.999995654742733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999983074115811</v>
+        <v>0.9999806202877654</v>
       </c>
       <c r="G12" t="n">
-        <v>4.309537392491518e-06</v>
+        <v>5.949658262030577e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009329704221871143</v>
+        <v>0.0009254770941058358</v>
       </c>
       <c r="I12" t="n">
-        <v>1.889691039427262e-05</v>
+        <v>3.012207474744819e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>5.039549174525754e-06</v>
+        <v>4.576087199545455e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>1.196793101171922e-05</v>
+        <v>1.734813390622466e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001851312700510752</v>
+        <v>0.0001842258629934667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002075942531114847</v>
+        <v>0.00243919213307</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005276290513</v>
+        <v>1.000007284337641</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002164319702457865</v>
+        <v>0.002543033591998587</v>
       </c>
       <c r="P12" t="n">
-        <v>114.7093599862758</v>
+        <v>114.0643535500181</v>
       </c>
       <c r="Q12" t="n">
-        <v>169.5587721053449</v>
+        <v>168.9137656690871</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999951832473245</v>
+        <v>0.9999930753387435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998997902888038</v>
+        <v>0.9990066378338424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999742570464165</v>
+        <v>0.9999544591505669</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999723475427914</v>
+        <v>0.999994930832126</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999818683250451</v>
+        <v>0.999978559132078</v>
       </c>
       <c r="G13" t="n">
-        <v>4.496227191526303e-06</v>
+        <v>6.463867325411309e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009354136670370559</v>
+        <v>0.000927259978548555</v>
       </c>
       <c r="I13" t="n">
-        <v>2.020489580956271e-05</v>
+        <v>3.304616770493837e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>5.436143980639541e-06</v>
+        <v>5.338453581706762e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>1.282051989510112e-05</v>
+        <v>1.919321831370192e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000185922952097586</v>
+        <v>0.0001879497102234593</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00212043089760697</v>
+        <v>0.002542413681014816</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005504860201</v>
+        <v>1.000007913898579</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002210702030815173</v>
+        <v>0.002650649494937475</v>
       </c>
       <c r="P13" t="n">
-        <v>114.6245438294529</v>
+        <v>113.8985655242182</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.473955948522</v>
+        <v>168.7479776432872</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999949938976538</v>
+        <v>0.9999925394720685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989956757526728</v>
+        <v>0.9990048670933338</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999727382495592</v>
+        <v>0.999950656488819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999705457797997</v>
+        <v>0.9999942174470455</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999807729165816</v>
+        <v>0.9999765980479427</v>
       </c>
       <c r="G14" t="n">
-        <v>4.672976797722705e-06</v>
+        <v>6.964075344723107e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009374926001405794</v>
+        <v>0.000928912887086764</v>
       </c>
       <c r="I14" t="n">
-        <v>2.139695530492366e-05</v>
+        <v>3.580552330352831e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>5.790349141072186e-06</v>
+        <v>6.089735297481268e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>1.359505981127378e-05</v>
+        <v>2.094872168582851e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001864989946542966</v>
+        <v>0.0001913249914509403</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002161706917628453</v>
+        <v>0.002638953456338915</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005721259824</v>
+        <v>1.000008526317636</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00225373525646211</v>
+        <v>0.002751299168362006</v>
       </c>
       <c r="P14" t="n">
-        <v>114.5474285188728</v>
+        <v>113.749491433887</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3968406379419</v>
+        <v>168.5989035529561</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999947934777806</v>
+        <v>0.999992027210319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989936277283299</v>
+        <v>0.9990032185566031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999971233501473</v>
+        <v>0.9999471090545897</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999687386723279</v>
+        <v>0.9999935261406127</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999796877843491</v>
+        <v>0.9999747548232767</v>
       </c>
       <c r="G15" t="n">
-        <v>4.860059951815749e-06</v>
+        <v>7.442249202154955e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009394043409667875</v>
+        <v>0.0009304517237624732</v>
       </c>
       <c r="I15" t="n">
-        <v>2.257798832835243e-05</v>
+        <v>3.837967613376474e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>6.145604962685947e-06</v>
+        <v>6.81776549781203e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>1.436233362413522e-05</v>
+        <v>2.259872081578838e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001871769982289694</v>
+        <v>0.0001943383990230991</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002204554365810866</v>
+        <v>0.002728048607000058</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005950311108</v>
+        <v>1.000009111759635</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002298406809220094</v>
+        <v>0.00284418728403918</v>
       </c>
       <c r="P15" t="n">
-        <v>114.4689195687268</v>
+        <v>113.6166748853775</v>
       </c>
       <c r="Q15" t="n">
-        <v>169.3183316877958</v>
+        <v>168.4660870044466</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999945920165553</v>
+        <v>0.9999915385414165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.998991816224973</v>
+        <v>0.9990016955102499</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999697951869772</v>
+        <v>0.9999438028686194</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999669919333901</v>
+        <v>0.9999928579864875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999978648219077</v>
+        <v>0.9999730219572064</v>
       </c>
       <c r="G16" t="n">
-        <v>5.048115162660032e-06</v>
+        <v>7.898400172576611e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009410952998346626</v>
+        <v>0.0009318734206791952</v>
       </c>
       <c r="I16" t="n">
-        <v>2.370687955815161e-05</v>
+        <v>4.077877007688177e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>6.4889930490017e-06</v>
+        <v>7.521413487176377e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>1.509738801302212e-05</v>
+        <v>2.414993025919961e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001879458490822159</v>
+        <v>0.0001970795249167672</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002246801095482204</v>
+        <v>0.002810409253574399</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000006180552508</v>
+        <v>1.000009670238381</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002342452069636328</v>
+        <v>0.002930054193848233</v>
       </c>
       <c r="P16" t="n">
-        <v>114.3929912389268</v>
+        <v>113.4977006575992</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.2424033579958</v>
+        <v>168.3471127766682</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999943971444639</v>
+        <v>0.9999910764701193</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989901848674835</v>
+        <v>0.9990002943904622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999684489824673</v>
+        <v>0.9999407321847701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999653327634294</v>
+        <v>0.9999922210388555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999977669919709</v>
+        <v>0.9999714025374477</v>
       </c>
       <c r="G17" t="n">
-        <v>5.230019705983219e-06</v>
+        <v>8.329723445960196e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009426181004428128</v>
+        <v>0.0009331813044988463</v>
       </c>
       <c r="I17" t="n">
-        <v>2.476347633798877e-05</v>
+        <v>4.300697474841684e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>6.815166116623372e-06</v>
+        <v>8.192197223597466e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>1.578912259023363e-05</v>
+        <v>2.559958598600715e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001888290018743394</v>
+        <v>0.0001995799664937409</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002286923633614209</v>
+        <v>0.002886126027386918</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00000640326347</v>
+        <v>1.000010198319864</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002384282707281716</v>
+        <v>0.003008994387477281</v>
       </c>
       <c r="P17" t="n">
-        <v>114.3221910240402</v>
+        <v>113.3913606042027</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.1716031431093</v>
+        <v>168.2407727232717</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999942271571923</v>
+        <v>0.9999906448784472</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989888217629932</v>
+        <v>0.9989990065871968</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999967279902238</v>
+        <v>0.9999379044369657</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999639178077975</v>
+        <v>0.9999916212899074</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999768229328995</v>
+        <v>0.9999699042369522</v>
       </c>
       <c r="G18" t="n">
-        <v>5.388695362418965e-06</v>
+        <v>8.732595327168217e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009438904986510536</v>
+        <v>0.0009343834123192144</v>
       </c>
       <c r="I18" t="n">
-        <v>2.568105341983201e-05</v>
+        <v>4.505889581124596e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>7.093329553703264e-06</v>
+        <v>8.823806197810269e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.63880088636309e-05</v>
+        <v>2.694081940120423e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001892731110743055</v>
+        <v>0.0002018078579204217</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002321356362650716</v>
+        <v>0.002955096500483227</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000006597534637</v>
+        <v>1.000010691567489</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002420181308878883</v>
+        <v>0.003080901076401861</v>
       </c>
       <c r="P18" t="n">
-        <v>114.2624145002607</v>
+        <v>113.2968958879175</v>
       </c>
       <c r="Q18" t="n">
-        <v>169.1118266193297</v>
+        <v>168.1463080069865</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999940452987641</v>
+        <v>0.9999902392837344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989875392025959</v>
+        <v>0.9989978245753404</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999660852502836</v>
+        <v>0.9999352899107735</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999624231807088</v>
+        <v>0.999991052913864</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999759541248407</v>
+        <v>0.9999685082178215</v>
       </c>
       <c r="G19" t="n">
-        <v>5.558452222509245e-06</v>
+        <v>9.111200188017184e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000945087712484093</v>
+        <v>0.0009354867685028092</v>
       </c>
       <c r="I19" t="n">
-        <v>2.661870100515481e-05</v>
+        <v>4.695609518481076e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>7.387155450994269e-06</v>
+        <v>9.422375667144321e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>1.700232447589699e-05</v>
+        <v>2.819049362355408e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000189929877027823</v>
+        <v>0.0002038399159469672</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002357636999732835</v>
+        <v>0.003018476468024421</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000006805372841</v>
+        <v>1.000011155104304</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002458006487792859</v>
+        <v>0.003146979260375903</v>
       </c>
       <c r="P19" t="n">
-        <v>114.2003817314049</v>
+        <v>113.2120122227009</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.0497938504739</v>
+        <v>168.0614243417699</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999938915075656</v>
+        <v>0.999989864663996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989864186159486</v>
+        <v>0.9989967440048396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999650857178468</v>
+        <v>0.999932896639848</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999611741476968</v>
+        <v>0.9999905219533863</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999752233347166</v>
+        <v>0.9999672272887925</v>
       </c>
       <c r="G20" t="n">
-        <v>5.702009555692631e-06</v>
+        <v>9.460891269949161e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009461337309312372</v>
+        <v>0.0009364954336337225</v>
       </c>
       <c r="I20" t="n">
-        <v>2.740320495408773e-05</v>
+        <v>4.86927433447788e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>7.632700475753286e-06</v>
+        <v>9.981541970983144e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>1.751905055608605e-05</v>
+        <v>2.933714265788097e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000190396684426018</v>
+        <v>0.0002056750683290996</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002387888095303595</v>
+        <v>0.003075856184861243</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000006981134211</v>
+        <v>1.000011583241147</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002489545435130467</v>
+        <v>0.003206801750550858</v>
       </c>
       <c r="P20" t="n">
-        <v>114.1493837832518</v>
+        <v>113.1366879295121</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.9987959023209</v>
+        <v>167.9861000485811</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999937527955151</v>
+        <v>0.9999895189831398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989854269792787</v>
+        <v>0.9989957569831924</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999641876904437</v>
+        <v>0.999930705949185</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999600646150266</v>
+        <v>0.9999900311007768</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999745720722858</v>
+        <v>0.9999660523193651</v>
       </c>
       <c r="G21" t="n">
-        <v>5.831491166065286e-06</v>
+        <v>9.783569175566968e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009470593802348212</v>
+        <v>0.0009374167750161391</v>
       </c>
       <c r="I21" t="n">
-        <v>2.810804055325667e-05</v>
+        <v>5.02823915823532e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>7.850821393565174e-06</v>
+        <v>1.049846978572605e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.797954430370965e-05</v>
+        <v>3.038893985251662e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001907534067445548</v>
+        <v>0.00020730362024235</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002414848062728851</v>
+        <v>0.003127869750415923</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000007139662269</v>
+        <v>1.000011978304983</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002517653144183843</v>
+        <v>0.003261029641274124</v>
       </c>
       <c r="P21" t="n">
-        <v>114.1044756313627</v>
+        <v>113.0696123882346</v>
       </c>
       <c r="Q21" t="n">
-        <v>168.9538877504318</v>
+        <v>167.9190245073036</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999993624229193</v>
+        <v>0.9999891991395202</v>
       </c>
       <c r="C22" t="n">
-        <v>0.99898454755794</v>
+        <v>0.9989948588402912</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999633706133364</v>
+        <v>0.9999287029017483</v>
       </c>
       <c r="E22" t="n">
-        <v>0.99995905091628</v>
+        <v>0.999989575456404</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999739778282528</v>
+        <v>0.9999649706917912</v>
       </c>
       <c r="G22" t="n">
-        <v>5.951502184327281e-06</v>
+        <v>1.008212915487006e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00094788028145235</v>
+        <v>0.0009382551519904942</v>
       </c>
       <c r="I22" t="n">
-        <v>2.874934061885209e-05</v>
+        <v>5.173587877758539e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>8.05010250258161e-06</v>
+        <v>1.097831902218378e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.839972156071685e-05</v>
+        <v>3.1357180235103e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001910043064597763</v>
+        <v>0.0002087854340306761</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002439570081864278</v>
+        <v>0.003175236865947179</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000007286595208</v>
+        <v>1.000012343840548</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002543427630855499</v>
+        <v>0.003310413272976992</v>
       </c>
       <c r="P22" t="n">
-        <v>114.0637338046345</v>
+        <v>113.009492183889</v>
       </c>
       <c r="Q22" t="n">
-        <v>168.9131459237035</v>
+        <v>167.858904302958</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999935020016782</v>
+        <v>0.9999889057021342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989837407658008</v>
+        <v>0.9989940425081385</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999626126866583</v>
+        <v>0.9999268796306404</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999580827347153</v>
+        <v>0.9999891546037937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999973421544293</v>
+        <v>0.9999639826034807</v>
       </c>
       <c r="G23" t="n">
-        <v>6.06559620420838e-06</v>
+        <v>1.035604007435501e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009486333865002653</v>
+        <v>0.0009390171622221646</v>
       </c>
       <c r="I23" t="n">
-        <v>2.934421523235815e-05</v>
+        <v>5.305891344980395e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>8.24043547536853e-06</v>
+        <v>1.142152827877328e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.879305806108757e-05</v>
+        <v>3.224168709021921e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001913265935748053</v>
+        <v>0.0002101235235512307</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002462843114006327</v>
+        <v>0.003218080184575116</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000007426283796</v>
+        <v>1.000012679197561</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002567691444157653</v>
+        <v>0.003355080520376816</v>
       </c>
       <c r="P23" t="n">
-        <v>114.025755435949</v>
+        <v>112.9558812528148</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.875167555018</v>
+        <v>167.8052933718838</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999933903736606</v>
+        <v>0.9999886374694108</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989830144445893</v>
+        <v>0.9989932979808164</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999619240946834</v>
+        <v>0.9999252193662884</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999572061225036</v>
+        <v>0.9999887661692087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999729182557877</v>
+        <v>0.9999630829240905</v>
       </c>
       <c r="G24" t="n">
-        <v>6.169796058708257e-06</v>
+        <v>1.060642354757253e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009493113754693893</v>
+        <v>0.0009397121457963883</v>
       </c>
       <c r="I24" t="n">
-        <v>2.988467105309409e-05</v>
+        <v>5.426366423721211e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>8.4127670031537e-06</v>
+        <v>1.183059739085248e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.914892260821799e-05</v>
+        <v>3.304705294626244e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001915897393230202</v>
+        <v>0.0002113108505997542</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002483907417499343</v>
+        <v>0.003256750458290062</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000007553858673</v>
+        <v>1.000012985749245</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002589652498659487</v>
+        <v>0.00339539706770231</v>
       </c>
       <c r="P24" t="n">
-        <v>113.9916895485744</v>
+        <v>112.9081014906662</v>
       </c>
       <c r="Q24" t="n">
-        <v>168.8411016676435</v>
+        <v>167.7575136097352</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999932879939184</v>
+        <v>0.9999883922406504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989823557729052</v>
+        <v>0.9989926220125096</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999612970099329</v>
+        <v>0.9999237142854616</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999564068810868</v>
+        <v>0.9999884120716512</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999724599713643</v>
+        <v>0.9999622628693843</v>
       </c>
       <c r="G25" t="n">
-        <v>6.265363054160509e-06</v>
+        <v>1.083533383112307e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009499262165740855</v>
+        <v>0.0009403431325392298</v>
       </c>
       <c r="I25" t="n">
-        <v>3.037685164179991e-05</v>
+        <v>5.535580797257626e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>8.569888353496512e-06</v>
+        <v>1.220350541458989e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.94729657306714e-05</v>
+        <v>3.378114118670636e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001918128463241079</v>
+        <v>0.0002123884059924104</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002503070724961743</v>
+        <v>0.0032917068264235</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000007670864093</v>
+        <v>1.000013266010685</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002609631627794077</v>
+        <v>0.003431841600796846</v>
       </c>
       <c r="P25" t="n">
-        <v>113.9609480434172</v>
+        <v>112.8653962260201</v>
       </c>
       <c r="Q25" t="n">
-        <v>168.8103601624862</v>
+        <v>167.7148083450892</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999931918843399</v>
+        <v>0.9999881684244433</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989817801828121</v>
+        <v>0.9989920085996629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999607244292261</v>
+        <v>0.9999223403144991</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999556459258203</v>
+        <v>0.9999880874789407</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999720358281317</v>
+        <v>0.999961516713621</v>
       </c>
       <c r="G26" t="n">
-        <v>6.355077126956399e-06</v>
+        <v>1.104425643602996e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009504635046604093</v>
+        <v>0.0009409157265059705</v>
       </c>
       <c r="I26" t="n">
-        <v>3.082625359111315e-05</v>
+        <v>5.635281341742074e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>8.719483102365299e-06</v>
+        <v>1.254534122699472e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.977286834673923e-05</v>
+        <v>3.444907732220773e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001920740700297275</v>
+        <v>0.0002133528152057675</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002520927830572783</v>
+        <v>0.003323290001794902</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000007780703612</v>
+        <v>1.000013521800636</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002628248947360283</v>
+        <v>0.003464769337329995</v>
       </c>
       <c r="P26" t="n">
-        <v>113.9325130339507</v>
+        <v>112.8272000893551</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.7819251530197</v>
+        <v>167.6766122084241</v>
       </c>
     </row>
   </sheetData>
